--- a/Wi-LogPlot.xlsx
+++ b/Wi-LogPlot.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/workspace/revoltech/wi-angular/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TooNies1810/Documents/lab/ribon-angular/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="LogPlotTab" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Code</t>
   </si>
@@ -47,34 +44,46 @@
     <t>icon</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>wiToolbar</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
     <t>wiButton</t>
   </si>
   <si>
-    <t>help_32x32</t>
-  </si>
-  <si>
-    <t>info_frp_32x32</t>
-  </si>
-  <si>
-    <t>Toolbar</t>
-  </si>
-  <si>
-    <t>Button1Button</t>
-  </si>
-  <si>
-    <t>Button2Button</t>
-  </si>
-  <si>
-    <t>Button3Button</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Image Name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>project_new_32x32</t>
+  </si>
+  <si>
+    <t>project_open_32x32</t>
+  </si>
+  <si>
+    <t>project_close_32x32</t>
+  </si>
+  <si>
+    <t>Databases1Toolbar</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>Test1Button</t>
+  </si>
+  <si>
+    <t>Test2Button</t>
+  </si>
+  <si>
+    <t>Test3Button</t>
   </si>
 </sst>
 </file>
@@ -90,7 +99,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,6 +110,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF70AD47"/>
         <bgColor rgb="FF339966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -124,9 +139,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,13 +420,14 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -428,16 +442,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -445,94 +468,95 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="H2" t="str">
-        <f>REPLACE(C2,1,2,"")</f>
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f>REPLACE(C2, 1, 2, "")</f>
         <v>Toolbar</v>
       </c>
-      <c r="I2">
-        <f>LEN(H2)</f>
-        <v>7</v>
-      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
+      <c r="A3" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="D3" t="str">
+        <f>REPLACE(C3, 1, 2, "")</f>
+        <v>Button</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
       <c r="F3" t="str">
-        <f>SUBSTITUTE(J3,"_","-")</f>
-        <v>help-32x32</v>
-      </c>
-      <c r="H3" t="str">
-        <f>REPLACE(C3,1,2,"")</f>
-        <v>Button</v>
-      </c>
-      <c r="I3">
-        <f>LEN(H3)</f>
-        <v>6</v>
+        <f>SUBSTITUTE(E3,"_","-")</f>
+        <v>project-new-32x32</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1.2</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
+      <c r="B4" t="s">
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D5" si="0">REPLACE(C4, 1, 2, "")</f>
+        <v>Button</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
       </c>
       <c r="F4" t="str">
-        <f>SUBSTITUTE(J4,"_","-")</f>
-        <v>info-frp-32x32</v>
-      </c>
-      <c r="H4" t="str">
-        <f>REPLACE(C4,1,2,"")</f>
-        <v>Button</v>
-      </c>
-      <c r="I4">
-        <f>LEN(H4)</f>
-        <v>6</v>
+        <f t="shared" ref="F4:F5" si="1">SUBSTITUTE(E4,"_","-")</f>
+        <v>project-open-32x32</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1.3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
+      <c r="B5" t="s">
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>Button</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
       </c>
       <c r="F5" t="str">
-        <f>SUBSTITUTE(J5,"_","-")</f>
-        <v/>
-      </c>
-      <c r="H5" t="str">
-        <f>REPLACE(C5,1,2,"")</f>
-        <v>Button</v>
-      </c>
-      <c r="I5">
-        <f>LEN(H5)</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>project-close-32x32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Wi-LogPlot.xlsx
+++ b/Wi-LogPlot.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TooNies1810/Documents/lab/ribon-angular/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="LogPlotTab" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="144525" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="89">
   <si>
     <t>Code</t>
   </si>
@@ -59,15 +54,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>project_new_32x32</t>
-  </si>
-  <si>
-    <t>project_open_32x32</t>
-  </si>
-  <si>
-    <t>project_close_32x32</t>
-  </si>
-  <si>
     <t>Databases1Toolbar</t>
   </si>
   <si>
@@ -77,13 +63,229 @@
     <t>small</t>
   </si>
   <si>
-    <t>Test1Button</t>
-  </si>
-  <si>
-    <t>Test2Button</t>
-  </si>
-  <si>
-    <t>Test3Button</t>
+    <t>EditFormatButton</t>
+  </si>
+  <si>
+    <t>SaveAsLogplotButton</t>
+  </si>
+  <si>
+    <t>SaveAsButton</t>
+  </si>
+  <si>
+    <t>Print</t>
+  </si>
+  <si>
+    <t>PrintButton</t>
+  </si>
+  <si>
+    <t>PrintToImageButton</t>
+  </si>
+  <si>
+    <t>ScaleButton</t>
+  </si>
+  <si>
+    <t>wiDropdown</t>
+  </si>
+  <si>
+    <t>Databases2Toolbar</t>
+  </si>
+  <si>
+    <t>ZoomInButton</t>
+  </si>
+  <si>
+    <t>ZoomOutButton</t>
+  </si>
+  <si>
+    <t>Databases3Toolbar</t>
+  </si>
+  <si>
+    <t>plot_range_specific_16x16</t>
+  </si>
+  <si>
+    <t>RangeSpecificDropdown</t>
+  </si>
+  <si>
+    <t>CropDisplayButton</t>
+  </si>
+  <si>
+    <t>plot_whole_well_16x16</t>
+  </si>
+  <si>
+    <t>ViewWholeWellButton</t>
+  </si>
+  <si>
+    <t>Databases4Toolbar</t>
+  </si>
+  <si>
+    <t>AddDepthAxisButton</t>
+  </si>
+  <si>
+    <t>NewTrackButton</t>
+  </si>
+  <si>
+    <t>DuplicateTrackButton</t>
+  </si>
+  <si>
+    <t>DeleteTrackButton</t>
+  </si>
+  <si>
+    <t>Databases5Toolbar</t>
+  </si>
+  <si>
+    <t>AddMarkerButton</t>
+  </si>
+  <si>
+    <t>AddZoneButton</t>
+  </si>
+  <si>
+    <t>Annotations</t>
+  </si>
+  <si>
+    <t>AnnotationsButton</t>
+  </si>
+  <si>
+    <t>AddImageButton</t>
+  </si>
+  <si>
+    <t>AddShadingButton</t>
+  </si>
+  <si>
+    <t>RemoveVisualButton</t>
+  </si>
+  <si>
+    <t>Databases6Toolbar</t>
+  </si>
+  <si>
+    <t>CrossPlotButton</t>
+  </si>
+  <si>
+    <t>Histogram</t>
+  </si>
+  <si>
+    <t>HistogramButton</t>
+  </si>
+  <si>
+    <t>Databases7Toolbar</t>
+  </si>
+  <si>
+    <t>FitWindowCheckbox</t>
+  </si>
+  <si>
+    <t>wiCheckbox</t>
+  </si>
+  <si>
+    <t>ReferenceLineCheckbox</t>
+  </si>
+  <si>
+    <t>TooltipCheckbox</t>
+  </si>
+  <si>
+    <t>save_16x16</t>
+  </si>
+  <si>
+    <t>save_as_16x16</t>
+  </si>
+  <si>
+    <t>print_16x16</t>
+  </si>
+  <si>
+    <t>scale_16x16</t>
+  </si>
+  <si>
+    <t>zoom_in_16x16</t>
+  </si>
+  <si>
+    <t>zoom_out_16x16</t>
+  </si>
+  <si>
+    <t>plot_range_16x16</t>
+  </si>
+  <si>
+    <t>logplot_new_16x16</t>
+  </si>
+  <si>
+    <t>track_duplicate_16x16</t>
+  </si>
+  <si>
+    <t>track_delete_16x16</t>
+  </si>
+  <si>
+    <t>marker_add_16x16</t>
+  </si>
+  <si>
+    <t>zone_edit_16x16</t>
+  </si>
+  <si>
+    <t>annotation_16x16</t>
+  </si>
+  <si>
+    <t>image_add_16x16</t>
+  </si>
+  <si>
+    <t>shading_add_16x16</t>
+  </si>
+  <si>
+    <t>visual_remove_16x16</t>
+  </si>
+  <si>
+    <t>crossplot_new_16x16</t>
+  </si>
+  <si>
+    <t>histogram_new_16x16</t>
+  </si>
+  <si>
+    <t>Edit Format</t>
+  </si>
+  <si>
+    <t>Save as Logplot Template</t>
+  </si>
+  <si>
+    <t>Save As</t>
+  </si>
+  <si>
+    <t>Print To Image</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Crop display</t>
+  </si>
+  <si>
+    <t>View Whole Well</t>
+  </si>
+  <si>
+    <t>Add Deph Axis</t>
+  </si>
+  <si>
+    <t>New Track</t>
+  </si>
+  <si>
+    <t>Duplicate Track</t>
+  </si>
+  <si>
+    <t>Delete Track</t>
+  </si>
+  <si>
+    <t>Add Marker</t>
+  </si>
+  <si>
+    <t>Add Zone</t>
+  </si>
+  <si>
+    <t>Add Image</t>
+  </si>
+  <si>
+    <t>Add Shading</t>
+  </si>
+  <si>
+    <t>Remove Visual</t>
+  </si>
+  <si>
+    <t>Cross Plot</t>
+  </si>
+  <si>
+    <t>depth_axis_add_16x16</t>
   </si>
 </sst>
 </file>
@@ -131,15 +333,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -197,7 +409,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -232,7 +444,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -409,7 +621,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -417,22 +629,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="5"/>
+    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -460,36 +677,40 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="str">
+      <c r="D2" s="1" t="str">
         <f>REPLACE(C2, 1, 2, "")</f>
         <v>Toolbar</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -498,65 +719,818 @@
         <f>REPLACE(C3, 1, 2, "")</f>
         <v>Button</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
       <c r="F3" t="str">
         <f>SUBSTITUTE(E3,"_","-")</f>
-        <v>project-new-32x32</v>
+        <v/>
       </c>
       <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="str">
+        <f>REPLACE(C4, 1, 2, "")</f>
+        <v>Button</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F34" si="0">SUBSTITUTE(E4,"_","-")</f>
+        <v>save-16x16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" ref="D5:D8" si="1">REPLACE(C5, 1, 2, "")</f>
+        <v>Button</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>save-as-16x16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" ref="D4:D5" si="0">REPLACE(C4, 1, 2, "")</f>
-        <v>Button</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" ref="F4:F5" si="1">SUBSTITUTE(E4,"_","-")</f>
-        <v>project-open-32x32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>Button</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>print-16x16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>Button</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="str">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="str">
         <f t="shared" si="1"/>
-        <v>project-close-32x32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
+        <v>Button</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>Dropdown</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>scale-16x16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f>REPLACE(C9, 1, 2, "")</f>
+        <v>Toolbar</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="str">
+        <f>REPLACE(C10, 1, 2, "")</f>
+        <v>Button</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>zoom-in-16x16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="str">
+        <f>REPLACE(C11, 1, 2, "")</f>
+        <v>Button</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>zoom-out-16x16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f>REPLACE(C12, 1, 2, "")</f>
+        <v>Toolbar</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" ref="D13:D20" si="2">REPLACE(C13, 1, 2, "")</f>
+        <v>Button</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>plot-range-16x16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="2"/>
+        <v>Dropdown</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>plot-range-specific-16x16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="2"/>
+        <v>Button</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>plot-whole-well-16x16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f>REPLACE(C16, 1, 2, "")</f>
+        <v>Toolbar</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="2"/>
+        <v>Button</v>
+      </c>
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" t="str">
+        <f>SUBSTITUTE(E17,"_","-")</f>
+        <v>depth-axis-add-16x16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="2"/>
+        <v>Button</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>logplot-new-16x16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="2"/>
+        <v>Button</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>track-duplicate-16x16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="2"/>
+        <v>Button</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>track-delete-16x16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f t="shared" ref="D21:D34" si="3">REPLACE(C21, 1, 2, "")</f>
+        <v>Toolbar</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="3"/>
+        <v>Button</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>marker-add-16x16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="3"/>
+        <v>Button</v>
+      </c>
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>zone-edit-16x16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>5.3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="3"/>
+        <v>Button</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>annotation-16x16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>5.4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="3"/>
+        <v>Button</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>image-add-16x16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="3"/>
+        <v>Button</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>shading-add-16x16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="3"/>
+        <v>Button</v>
+      </c>
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>visual-remove-16x16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Toolbar</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>6.1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="3"/>
+        <v>Button</v>
+      </c>
+      <c r="E29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>crossplot-new-16x16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>6.2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="3"/>
+        <v>Button</v>
+      </c>
+      <c r="E30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>histogram-new-16x16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Toolbar</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>7.1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="3"/>
+        <v>Checkbox</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="3"/>
+        <v>Checkbox</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>7.3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="3"/>
+        <v>Checkbox</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Wi-LogPlot.xlsx
+++ b/Wi-LogPlot.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="93">
   <si>
     <t>Code</t>
   </si>
@@ -286,6 +286,18 @@
   </si>
   <si>
     <t>depth_axis_add_16x16</t>
+  </si>
+  <si>
+    <t>tooltip</t>
+  </si>
+  <si>
+    <t>Fit Window</t>
+  </si>
+  <si>
+    <t>Reference Line</t>
+  </si>
+  <si>
+    <t>Tool tip</t>
   </si>
 </sst>
 </file>
@@ -629,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -645,10 +657,10 @@
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.875" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.875" customWidth="1"/>
+    <col min="11" max="11" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -679,11 +691,11 @@
       <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -703,9 +715,9 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -726,11 +738,11 @@
       <c r="J3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" t="s">
+      <c r="K3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1.2</v>
       </c>
@@ -754,11 +766,11 @@
       <c r="J4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1.3</v>
       </c>
@@ -782,11 +794,11 @@
       <c r="J5" t="s">
         <v>13</v>
       </c>
-      <c r="L5" t="s">
+      <c r="K5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>1.4</v>
       </c>
@@ -810,11 +822,11 @@
       <c r="J6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" t="s">
+      <c r="K6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>1.5</v>
       </c>
@@ -835,11 +847,11 @@
       <c r="J7" t="s">
         <v>13</v>
       </c>
-      <c r="L7" t="s">
+      <c r="K7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1.6</v>
       </c>
@@ -863,11 +875,11 @@
       <c r="J8" t="s">
         <v>13</v>
       </c>
-      <c r="L8" t="s">
+      <c r="K8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2</v>
       </c>
@@ -886,12 +898,10 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2.1</v>
       </c>
@@ -916,7 +926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2.2000000000000002</v>
       </c>
@@ -941,7 +951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>3</v>
       </c>
@@ -960,12 +970,10 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>3.1</v>
       </c>
@@ -989,11 +997,11 @@
       <c r="J13" t="s">
         <v>13</v>
       </c>
-      <c r="L13" t="s">
+      <c r="K13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>3.2</v>
       </c>
@@ -1018,7 +1026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>3.3</v>
       </c>
@@ -1042,11 +1050,11 @@
       <c r="J15" t="s">
         <v>13</v>
       </c>
-      <c r="L15" t="s">
+      <c r="K15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>4</v>
       </c>
@@ -1065,12 +1073,10 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>4.0999999999999996</v>
       </c>
@@ -1094,11 +1100,11 @@
       <c r="J17" t="s">
         <v>13</v>
       </c>
-      <c r="L17" t="s">
+      <c r="K17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>4.2</v>
       </c>
@@ -1122,11 +1128,11 @@
       <c r="J18" t="s">
         <v>13</v>
       </c>
-      <c r="L18" t="s">
+      <c r="K18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>4.3</v>
       </c>
@@ -1150,11 +1156,11 @@
       <c r="J19" t="s">
         <v>13</v>
       </c>
-      <c r="L19" t="s">
+      <c r="K19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>4.4000000000000004</v>
       </c>
@@ -1178,11 +1184,11 @@
       <c r="J20" t="s">
         <v>13</v>
       </c>
-      <c r="L20" t="s">
+      <c r="K20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>5</v>
       </c>
@@ -1201,12 +1207,10 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>5.0999999999999996</v>
       </c>
@@ -1230,11 +1234,11 @@
       <c r="J22" t="s">
         <v>13</v>
       </c>
-      <c r="L22" t="s">
+      <c r="K22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>5.2</v>
       </c>
@@ -1258,11 +1262,11 @@
       <c r="J23" t="s">
         <v>13</v>
       </c>
-      <c r="L23" t="s">
+      <c r="K23" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>5.3</v>
       </c>
@@ -1286,11 +1290,11 @@
       <c r="J24" t="s">
         <v>13</v>
       </c>
-      <c r="L24" t="s">
+      <c r="K24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>5.4</v>
       </c>
@@ -1314,11 +1318,11 @@
       <c r="J25" t="s">
         <v>13</v>
       </c>
-      <c r="L25" t="s">
+      <c r="K25" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>5.5</v>
       </c>
@@ -1342,11 +1346,11 @@
       <c r="J26" t="s">
         <v>13</v>
       </c>
-      <c r="L26" t="s">
+      <c r="K26" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>5.6</v>
       </c>
@@ -1370,11 +1374,11 @@
       <c r="J27" t="s">
         <v>13</v>
       </c>
-      <c r="L27" t="s">
+      <c r="K27" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>6</v>
       </c>
@@ -1393,12 +1397,10 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" t="s">
-        <v>13</v>
-      </c>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>6.1</v>
       </c>
@@ -1422,11 +1424,11 @@
       <c r="J29" t="s">
         <v>13</v>
       </c>
-      <c r="L29" t="s">
+      <c r="K29" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>6.2</v>
       </c>
@@ -1450,11 +1452,11 @@
       <c r="J30" t="s">
         <v>13</v>
       </c>
-      <c r="L30" t="s">
+      <c r="K30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>7</v>
       </c>
@@ -1474,9 +1476,9 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>7.1</v>
       </c>
@@ -1494,8 +1496,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>7.2</v>
       </c>
@@ -1513,8 +1518,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>7.3</v>
       </c>
@@ -1531,6 +1539,9 @@
       <c r="F34" t="str">
         <f t="shared" si="0"/>
         <v/>
+      </c>
+      <c r="G34" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Wi-LogPlot.xlsx
+++ b/Wi-LogPlot.xlsx
@@ -8,8 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="LogPlotTab" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" iterateDelta="1E-4" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="146">
   <si>
     <t>Code</t>
   </si>
@@ -81,9 +83,6 @@
     <t>PrintToImageButton</t>
   </si>
   <si>
-    <t>ScaleButton</t>
-  </si>
-  <si>
     <t>wiDropdown</t>
   </si>
   <si>
@@ -298,6 +297,168 @@
   </si>
   <si>
     <t>Tool tip</t>
+  </si>
+  <si>
+    <t>Zoom in</t>
+  </si>
+  <si>
+    <t>Zoom out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          1.6.1</t>
+  </si>
+  <si>
+    <t>Scale20Button</t>
+  </si>
+  <si>
+    <t>Scale50Button</t>
+  </si>
+  <si>
+    <t>Scale100Button</t>
+  </si>
+  <si>
+    <t>Scale200Button</t>
+  </si>
+  <si>
+    <t>Scale300Button</t>
+  </si>
+  <si>
+    <t>Scale500Button</t>
+  </si>
+  <si>
+    <t>Scale1000Button</t>
+  </si>
+  <si>
+    <t>Scale2000Button</t>
+  </si>
+  <si>
+    <t>Scale2500Button</t>
+  </si>
+  <si>
+    <t>Scale3000Button</t>
+  </si>
+  <si>
+    <t>Scale5000Button</t>
+  </si>
+  <si>
+    <t>ScaleFullButton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.6.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1.6.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1.6.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1.6.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1.6.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1.6.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1.6.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1.6.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.6.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.6.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         1.6.12</t>
+  </si>
+  <si>
+    <t>1:100</t>
+  </si>
+  <si>
+    <t>1:50</t>
+  </si>
+  <si>
+    <t>1:20</t>
+  </si>
+  <si>
+    <t>1:200</t>
+  </si>
+  <si>
+    <t>1:300</t>
+  </si>
+  <si>
+    <t>1:500</t>
+  </si>
+  <si>
+    <t>1:1000</t>
+  </si>
+  <si>
+    <t>1:2000</t>
+  </si>
+  <si>
+    <t>1:2500</t>
+  </si>
+  <si>
+    <t>1:3000</t>
+  </si>
+  <si>
+    <t>1:5000</t>
+  </si>
+  <si>
+    <t>1:Full</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>Dropdown</t>
+  </si>
+  <si>
+    <t>scale-16x16</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3.2.1</t>
+  </si>
+  <si>
+    <t>RangeFromButton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          3.2.2</t>
+  </si>
+  <si>
+    <t>RangeToButton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3.2.3</t>
+  </si>
+  <si>
+    <t>RangeOkButton</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>ScaleDropdown</t>
+  </si>
+  <si>
+    <t>properties_16x16</t>
+  </si>
+  <si>
+    <t>arrow_right_16x16</t>
   </si>
 </sst>
 </file>
@@ -313,7 +474,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,6 +493,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4A506"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -345,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -364,12 +531,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE4A506"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -633,7 +813,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -641,17 +821,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="5"/>
     <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
@@ -692,7 +872,7 @@
         <v>12</v>
       </c>
       <c r="K1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -731,15 +911,18 @@
         <f>REPLACE(C3, 1, 2, "")</f>
         <v>Button</v>
       </c>
+      <c r="E3" t="s">
+        <v>144</v>
+      </c>
       <c r="F3" t="str">
         <f>SUBSTITUTE(E3,"_","-")</f>
-        <v/>
+        <v>properties-16x16</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -757,17 +940,17 @@
         <v>Button</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F4:F34" si="0">SUBSTITUTE(E4,"_","-")</f>
+        <f t="shared" ref="F4:F49" si="0">SUBSTITUTE(E4,"_","-")</f>
         <v>save-16x16</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -781,11 +964,11 @@
         <v>7</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" ref="D5:D8" si="1">REPLACE(C5, 1, 2, "")</f>
+        <f t="shared" ref="D5:D7" si="1">REPLACE(C5, 1, 2, "")</f>
         <v>Button</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -795,7 +978,7 @@
         <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -813,7 +996,7 @@
         <v>Button</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -840,366 +1023,262 @@
         <f t="shared" si="1"/>
         <v>Button</v>
       </c>
+      <c r="E7" t="s">
+        <v>145</v>
+      </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>arrow-right-16x16</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
       </c>
       <c r="K7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="1"/>
-        <v>Dropdown</v>
-      </c>
-      <c r="E8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>scale-16x16</v>
-      </c>
-      <c r="J8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" t="s">
-        <v>75</v>
-      </c>
-    </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f>REPLACE(C9, 1, 2, "")</f>
-        <v>Toolbar</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="A9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>2.1</v>
+      <c r="A10" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="str">
-        <f>REPLACE(C10, 1, 2, "")</f>
-        <v>Button</v>
-      </c>
-      <c r="E10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>zoom-in-16x16</v>
-      </c>
-      <c r="J10" t="s">
-        <v>13</v>
+      <c r="D10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>2.2000000000000002</v>
+      <c r="A11" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" t="str">
-        <f>REPLACE(C11, 1, 2, "")</f>
-        <v>Button</v>
-      </c>
-      <c r="E11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>zoom-out-16x16</v>
-      </c>
-      <c r="J11" t="s">
-        <v>13</v>
+      <c r="D11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f>REPLACE(C12, 1, 2, "")</f>
-        <v>Toolbar</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="A12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>3.1</v>
+      <c r="A13" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" t="str">
-        <f t="shared" ref="D13:D20" si="2">REPLACE(C13, 1, 2, "")</f>
-        <v>Button</v>
-      </c>
-      <c r="E13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>plot-range-16x16</v>
-      </c>
-      <c r="J13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" t="s">
-        <v>76</v>
+      <c r="D13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>3.2</v>
+      <c r="A14" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="2"/>
-        <v>Dropdown</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>plot-range-specific-16x16</v>
-      </c>
-      <c r="J14" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>3.3</v>
+      <c r="A15" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D15" t="str">
-        <f t="shared" si="2"/>
-        <v>Button</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>plot-whole-well-16x16</v>
-      </c>
-      <c r="J15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" t="s">
-        <v>77</v>
+      <c r="D15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f>REPLACE(C16, 1, 2, "")</f>
-        <v>Toolbar</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="A16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>4.0999999999999996</v>
+      <c r="A17" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" t="str">
-        <f t="shared" si="2"/>
-        <v>Button</v>
-      </c>
-      <c r="E17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" t="str">
-        <f>SUBSTITUTE(E17,"_","-")</f>
-        <v>depth-axis-add-16x16</v>
-      </c>
-      <c r="J17" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" t="s">
-        <v>78</v>
+      <c r="D17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>4.2</v>
+      <c r="A18" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
-      <c r="D18" t="str">
-        <f t="shared" si="2"/>
-        <v>Button</v>
-      </c>
-      <c r="E18" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>logplot-new-16x16</v>
-      </c>
-      <c r="J18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" t="s">
-        <v>79</v>
+      <c r="D18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>4.3</v>
+      <c r="A19" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
-      <c r="D19" t="str">
-        <f t="shared" si="2"/>
-        <v>Button</v>
-      </c>
-      <c r="E19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>track-duplicate-16x16</v>
-      </c>
-      <c r="J19" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" t="s">
-        <v>80</v>
+      <c r="D19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>4.4000000000000004</v>
+      <c r="A20" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
-      <c r="D20" t="str">
-        <f t="shared" si="2"/>
-        <v>Button</v>
-      </c>
-      <c r="E20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>track-delete-16x16</v>
-      </c>
-      <c r="J20" t="s">
-        <v>13</v>
-      </c>
-      <c r="K20" t="s">
-        <v>81</v>
+      <c r="D20" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f t="shared" ref="D21:D34" si="3">REPLACE(C21, 1, 2, "")</f>
+        <f>REPLACE(C21, 1, 2, "")</f>
         <v>Toolbar</v>
       </c>
       <c r="E21" s="2"/>
@@ -1212,262 +1291,229 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>5.0999999999999996</v>
+        <v>2.1</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="3"/>
+        <f>REPLACE(C22, 1, 2, "")</f>
         <v>Button</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>marker-add-16x16</v>
+        <v>zoom-in-16x16</v>
       </c>
       <c r="J22" t="s">
         <v>13</v>
       </c>
       <c r="K22" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>5.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="3"/>
+        <f>REPLACE(C23, 1, 2, "")</f>
         <v>Button</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>zone-edit-16x16</v>
+        <v>zoom-out-16x16</v>
       </c>
       <c r="J23" t="s">
         <v>13</v>
       </c>
       <c r="K23" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>5.3</v>
-      </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="3"/>
-        <v>Button</v>
-      </c>
-      <c r="E24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>annotation-16x16</v>
-      </c>
-      <c r="J24" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" t="s">
-        <v>39</v>
-      </c>
+      <c r="A24" s="6">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f>REPLACE(C24, 1, 2, "")</f>
+        <v>Toolbar</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>5.4</v>
+        <v>3.1</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D25:D35" si="2">REPLACE(C25, 1, 2, "")</f>
         <v>Button</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>image-add-16x16</v>
+        <v>plot-range-16x16</v>
       </c>
       <c r="J25" t="s">
         <v>13</v>
       </c>
       <c r="K25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="3"/>
-        <v>Button</v>
-      </c>
-      <c r="E26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>shading-add-16x16</v>
-      </c>
-      <c r="J26" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" t="s">
-        <v>85</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>3.2</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>Dropdown</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>plot-range-specific-16x16</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>5.6</v>
+      <c r="A27" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="3"/>
-        <v>Button</v>
-      </c>
-      <c r="E27" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="0"/>
-        <v>visual-remove-16x16</v>
-      </c>
-      <c r="J27" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" t="s">
-        <v>86</v>
+        <f t="shared" si="2"/>
+        <v>Button</v>
+      </c>
+      <c r="G27" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>6</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Toolbar</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="A28" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="2"/>
+        <v>Button</v>
+      </c>
+      <c r="G28" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>6.1</v>
+      <c r="A29" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="3"/>
-        <v>Button</v>
-      </c>
-      <c r="E29" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="0"/>
-        <v>crossplot-new-16x16</v>
-      </c>
-      <c r="J29" t="s">
-        <v>13</v>
-      </c>
-      <c r="K29" t="s">
-        <v>87</v>
+        <f t="shared" si="2"/>
+        <v>Button</v>
+      </c>
+      <c r="G29" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>6.2</v>
+        <v>3.3</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Button</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>histogram-new-16x16</v>
+        <v>plot-whole-well-16x16</v>
       </c>
       <c r="J30" t="s">
         <v>13</v>
       </c>
       <c r="K30" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>REPLACE(C31, 1, 2, "")</f>
         <v>Toolbar</v>
       </c>
       <c r="E31" s="2"/>
@@ -1480,71 +1526,488 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="2"/>
+        <v>Button</v>
+      </c>
+      <c r="E32" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" t="str">
+        <f>SUBSTITUTE(E32,"_","-")</f>
+        <v>depth-axis-add-16x16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="2"/>
+        <v>Button</v>
+      </c>
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>logplot-new-16x16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="2"/>
+        <v>Button</v>
+      </c>
+      <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>track-duplicate-16x16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="2"/>
+        <v>Button</v>
+      </c>
+      <c r="E35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>track-delete-16x16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f t="shared" ref="D36:D49" si="3">REPLACE(C36, 1, 2, "")</f>
+        <v>Toolbar</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="3"/>
+        <v>Button</v>
+      </c>
+      <c r="E37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>marker-add-16x16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="3"/>
+        <v>Button</v>
+      </c>
+      <c r="E38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>zone-edit-16x16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>5.3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="3"/>
+        <v>Button</v>
+      </c>
+      <c r="E39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>annotation-16x16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>5.4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="3"/>
+        <v>Button</v>
+      </c>
+      <c r="E40" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>image-add-16x16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="3"/>
+        <v>Button</v>
+      </c>
+      <c r="E41" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>shading-add-16x16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="3"/>
+        <v>Button</v>
+      </c>
+      <c r="E42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>visual-remove-16x16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Toolbar</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>6.1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="3"/>
+        <v>Button</v>
+      </c>
+      <c r="E44" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>crossplot-new-16x16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>6.2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="3"/>
+        <v>Button</v>
+      </c>
+      <c r="E45" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>histogram-new-16x16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>7</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Toolbar</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
         <v>7.1</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
         <v>49</v>
       </c>
-      <c r="C32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" t="str">
+      <c r="D47" t="str">
         <f t="shared" si="3"/>
         <v>Checkbox</v>
       </c>
-      <c r="F32" t="str">
+      <c r="F47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="G47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
         <v>7.2</v>
       </c>
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B48" t="s">
         <v>50</v>
       </c>
-      <c r="D33" t="str">
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" t="str">
         <f t="shared" si="3"/>
         <v>Checkbox</v>
       </c>
-      <c r="F33" t="str">
+      <c r="F48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="G48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
         <v>7.3</v>
       </c>
-      <c r="B34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" t="str">
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" t="str">
         <f t="shared" si="3"/>
         <v>Checkbox</v>
       </c>
-      <c r="F34" t="str">
+      <c r="F49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G34" t="s">
-        <v>92</v>
+      <c r="G49" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Wi-LogPlot.xlsx
+++ b/Wi-LogPlot.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TooNies1810/Documents/lab/ribon-angular/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="75" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="LogPlotTab" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -455,10 +459,10 @@
     <t>ScaleDropdown</t>
   </si>
   <si>
-    <t>properties_16x16</t>
-  </si>
-  <si>
     <t>arrow_right_16x16</t>
+  </si>
+  <si>
+    <t>track_properties_16x16</t>
   </si>
 </sst>
 </file>
@@ -813,7 +817,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -823,21 +827,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="87" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="5"/>
-    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.875" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -912,11 +916,11 @@
         <v>Button</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F3" t="str">
         <f>SUBSTITUTE(E3,"_","-")</f>
-        <v>properties-16x16</v>
+        <v>track-properties-16x16</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
@@ -1024,7 +1028,7 @@
         <v>Button</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -1948,7 +1952,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>7.2</v>
       </c>
@@ -1970,7 +1974,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>7.3</v>
       </c>
@@ -2006,7 +2010,7 @@
       <selection sqref="A1:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Wi-LogPlot.xlsx
+++ b/Wi-LogPlot.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="149">
   <si>
     <t>Code</t>
   </si>
@@ -463,7 +463,10 @@
     <t>class</t>
   </si>
   <si>
-    <t>troioi</t>
+    <t>icon-left</t>
+  </si>
+  <si>
+    <t>height-auto</t>
   </si>
 </sst>
 </file>
@@ -818,7 +821,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -828,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -933,9 +936,6 @@
       <c r="K3" t="s">
         <v>70</v>
       </c>
-      <c r="L3" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -1091,6 +1091,12 @@
       <c r="G9" s="10" t="s">
         <v>120</v>
       </c>
+      <c r="H9" t="s">
+        <v>147</v>
+      </c>
+      <c r="L9" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1108,6 +1114,12 @@
       <c r="G10" s="10" t="s">
         <v>119</v>
       </c>
+      <c r="H10" t="s">
+        <v>147</v>
+      </c>
+      <c r="L10" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1125,6 +1137,12 @@
       <c r="G11" s="10" t="s">
         <v>118</v>
       </c>
+      <c r="H11" t="s">
+        <v>147</v>
+      </c>
+      <c r="L11" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -1142,6 +1160,12 @@
       <c r="G12" s="10" t="s">
         <v>121</v>
       </c>
+      <c r="H12" t="s">
+        <v>147</v>
+      </c>
+      <c r="L12" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1159,6 +1183,12 @@
       <c r="G13" s="10" t="s">
         <v>122</v>
       </c>
+      <c r="H13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -1176,6 +1206,12 @@
       <c r="G14" s="10" t="s">
         <v>123</v>
       </c>
+      <c r="H14" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1193,6 +1229,12 @@
       <c r="G15" s="10" t="s">
         <v>124</v>
       </c>
+      <c r="H15" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -1210,6 +1252,12 @@
       <c r="G16" s="10" t="s">
         <v>125</v>
       </c>
+      <c r="H16" t="s">
+        <v>147</v>
+      </c>
+      <c r="L16" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -1227,6 +1275,12 @@
       <c r="G17" s="10" t="s">
         <v>126</v>
       </c>
+      <c r="H17" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -1244,6 +1298,12 @@
       <c r="G18" s="10" t="s">
         <v>127</v>
       </c>
+      <c r="H18" t="s">
+        <v>147</v>
+      </c>
+      <c r="L18" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -1261,6 +1321,12 @@
       <c r="G19" s="10" t="s">
         <v>128</v>
       </c>
+      <c r="H19" t="s">
+        <v>147</v>
+      </c>
+      <c r="L19" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -1277,6 +1343,12 @@
       </c>
       <c r="G20" t="s">
         <v>129</v>
+      </c>
+      <c r="H20" t="s">
+        <v>147</v>
+      </c>
+      <c r="L20" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1451,6 +1523,12 @@
       <c r="G27" t="s">
         <v>141</v>
       </c>
+      <c r="H27" t="s">
+        <v>147</v>
+      </c>
+      <c r="L27" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -1469,6 +1547,12 @@
       <c r="G28" t="s">
         <v>142</v>
       </c>
+      <c r="H28" t="s">
+        <v>147</v>
+      </c>
+      <c r="L28" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -1486,6 +1570,12 @@
       </c>
       <c r="G29" t="s">
         <v>140</v>
+      </c>
+      <c r="H29" t="s">
+        <v>147</v>
+      </c>
+      <c r="L29" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1537,6 +1627,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
@@ -1566,7 +1657,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>4.2</v>
       </c>
@@ -1594,7 +1685,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>4.3</v>
       </c>
@@ -1622,7 +1713,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>4.4000000000000004</v>
       </c>
@@ -1650,7 +1741,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>5</v>
       </c>
@@ -1671,8 +1762,9 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>5.0999999999999996</v>
       </c>
@@ -1700,7 +1792,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>5.2</v>
       </c>
@@ -1728,7 +1820,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>5.3</v>
       </c>
@@ -1756,7 +1848,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>5.4</v>
       </c>
@@ -1784,7 +1876,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>5.5</v>
       </c>
@@ -1812,7 +1904,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>5.6</v>
       </c>
@@ -1840,7 +1932,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>6</v>
       </c>
@@ -1861,8 +1953,9 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>6.1</v>
       </c>
@@ -1890,7 +1983,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>6.2</v>
       </c>
@@ -1918,7 +2011,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>7</v>
       </c>
@@ -1939,8 +2032,9 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>7.1</v>
       </c>
@@ -1962,7 +2056,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>7.2</v>
       </c>

--- a/Wi-LogPlot.xlsx
+++ b/Wi-LogPlot.xlsx
@@ -454,12 +454,6 @@
     <t>ScaleDropdown</t>
   </si>
   <si>
-    <t>properties_16x16</t>
-  </si>
-  <si>
-    <t>arrow_right_16x16</t>
-  </si>
-  <si>
     <t>class</t>
   </si>
   <si>
@@ -467,6 +461,12 @@
   </si>
   <si>
     <t>height-auto</t>
+  </si>
+  <si>
+    <t>track_properties_16x16</t>
+  </si>
+  <si>
+    <t>print_to_image_16x16</t>
   </si>
 </sst>
 </file>
@@ -821,7 +821,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -883,7 +883,7 @@
         <v>88</v>
       </c>
       <c r="L1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -924,11 +924,11 @@
         <v>Button</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F3" t="str">
         <f>SUBSTITUTE(E3,"_","-")</f>
-        <v>properties-16x16</v>
+        <v>track-properties-16x16</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
@@ -1036,11 +1036,11 @@
         <v>Button</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>arrow-right-16x16</v>
+        <v>print-to-image-16x16</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
@@ -1092,10 +1092,10 @@
         <v>120</v>
       </c>
       <c r="H9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1115,10 +1115,10 @@
         <v>119</v>
       </c>
       <c r="H10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1138,10 +1138,10 @@
         <v>118</v>
       </c>
       <c r="H11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1161,10 +1161,10 @@
         <v>121</v>
       </c>
       <c r="H12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1184,10 +1184,10 @@
         <v>122</v>
       </c>
       <c r="H13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1207,10 +1207,10 @@
         <v>123</v>
       </c>
       <c r="H14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1230,10 +1230,10 @@
         <v>124</v>
       </c>
       <c r="H15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1253,10 +1253,10 @@
         <v>125</v>
       </c>
       <c r="H16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1276,10 +1276,10 @@
         <v>126</v>
       </c>
       <c r="H17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1299,10 +1299,10 @@
         <v>127</v>
       </c>
       <c r="H18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1322,10 +1322,10 @@
         <v>128</v>
       </c>
       <c r="H19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1345,10 +1345,10 @@
         <v>129</v>
       </c>
       <c r="H20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1524,10 +1524,10 @@
         <v>141</v>
       </c>
       <c r="H27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1548,10 +1548,10 @@
         <v>142</v>
       </c>
       <c r="H28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1572,10 +1572,10 @@
         <v>140</v>
       </c>
       <c r="H29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">

--- a/Wi-LogPlot.xlsx
+++ b/Wi-LogPlot.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
   <si>
     <t>Code</t>
   </si>
@@ -100,9 +100,6 @@
     <t>plot_range_specific_16x16</t>
   </si>
   <si>
-    <t>RangeSpecificDropdown</t>
-  </si>
-  <si>
     <t>CropDisplayButton</t>
   </si>
   <si>
@@ -424,33 +421,6 @@
     <t>Button</t>
   </si>
   <si>
-    <t xml:space="preserve">           3.2.1</t>
-  </si>
-  <si>
-    <t>RangeFromButton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          3.2.2</t>
-  </si>
-  <si>
-    <t>RangeToButton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           3.2.3</t>
-  </si>
-  <si>
-    <t>RangeOkButton</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
     <t>ScaleDropdown</t>
   </si>
   <si>
@@ -467,6 +437,12 @@
   </si>
   <si>
     <t>print_to_image_16x16</t>
+  </si>
+  <si>
+    <t>RangeSpecificButton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range Specific </t>
   </si>
 </sst>
 </file>
@@ -520,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -544,9 +520,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -821,7 +798,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -829,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -880,10 +857,10 @@
         <v>12</v>
       </c>
       <c r="K1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -924,7 +901,7 @@
         <v>Button</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F3" t="str">
         <f>SUBSTITUTE(E3,"_","-")</f>
@@ -934,7 +911,7 @@
         <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -952,17 +929,17 @@
         <v>Button</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F4:F49" si="0">SUBSTITUTE(E4,"_","-")</f>
+        <f t="shared" ref="F4:F46" si="0">SUBSTITUTE(E4,"_","-")</f>
         <v>save-16x16</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -980,7 +957,7 @@
         <v>Button</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -990,7 +967,7 @@
         <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1008,7 +985,7 @@
         <v>Button</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -1036,7 +1013,7 @@
         <v>Button</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -1046,309 +1023,309 @@
         <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>132</v>
-      </c>
       <c r="J8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
         <v>94</v>
       </c>
-      <c r="B9" t="s">
-        <v>95</v>
-      </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H9" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H10" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H11" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L11" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H12" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H13" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H14" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H16" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L16" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H17" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L17" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H18" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L18" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H19" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L19" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H20" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L20" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1389,7 +1366,7 @@
         <v>Button</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -1399,7 +1376,7 @@
         <v>13</v>
       </c>
       <c r="K22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1417,7 +1394,7 @@
         <v>Button</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -1427,7 +1404,7 @@
         <v>13</v>
       </c>
       <c r="K23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1458,17 +1435,17 @@
         <v>3.1</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" ref="D25:D35" si="2">REPLACE(C25, 1, 2, "")</f>
+        <f t="shared" ref="D25:D32" si="2">REPLACE(C25, 1, 2, "")</f>
         <v>Button</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -1478,40 +1455,43 @@
         <v>13</v>
       </c>
       <c r="K25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>3.2</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="9" t="str">
+      <c r="B26" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Dropdown</v>
-      </c>
-      <c r="E26" s="9" t="s">
+        <v>Button</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="9" t="str">
+      <c r="F26" s="12" t="str">
         <f t="shared" si="0"/>
         <v>plot-range-specific-16x16</v>
       </c>
-      <c r="J26" s="9" t="s">
-        <v>13</v>
+      <c r="J26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>134</v>
+      <c r="A27" s="5">
+        <v>3.3</v>
       </c>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -1520,46 +1500,49 @@
         <f t="shared" si="2"/>
         <v>Button</v>
       </c>
-      <c r="G27" t="s">
-        <v>141</v>
-      </c>
-      <c r="H27" t="s">
-        <v>145</v>
-      </c>
-      <c r="L27" t="s">
-        <v>146</v>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>plot-whole-well-16x16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B28" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="2"/>
-        <v>Button</v>
-      </c>
-      <c r="G28" t="s">
-        <v>142</v>
-      </c>
-      <c r="H28" t="s">
-        <v>145</v>
-      </c>
-      <c r="L28" t="s">
-        <v>146</v>
-      </c>
+      <c r="A28" s="6">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f>REPLACE(C28, 1, 2, "")</f>
+        <v>Toolbar</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>138</v>
+      <c r="A29" s="5">
+        <v>4.0999999999999996</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -1568,22 +1551,26 @@
         <f t="shared" si="2"/>
         <v>Button</v>
       </c>
-      <c r="G29" t="s">
-        <v>140</v>
-      </c>
-      <c r="H29" t="s">
-        <v>145</v>
-      </c>
-      <c r="L29" t="s">
-        <v>146</v>
+      <c r="E29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" t="str">
+        <f>SUBSTITUTE(E29,"_","-")</f>
+        <v>depth-axis-add-16x16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -1593,48 +1580,53 @@
         <v>Button</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>plot-whole-well-16x16</v>
+        <v>logplot-new-16x16</v>
       </c>
       <c r="J30" t="s">
         <v>13</v>
       </c>
       <c r="K30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="1" t="str">
-        <f>REPLACE(C31, 1, 2, "")</f>
-        <v>Toolbar</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+      <c r="A31" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="2"/>
+        <v>Button</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>track-duplicate-16x16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>4.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -1644,132 +1636,132 @@
         <v>Button</v>
       </c>
       <c r="E32" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="F32" t="str">
-        <f>SUBSTITUTE(E32,"_","-")</f>
-        <v>depth-axis-add-16x16</v>
+        <f t="shared" si="0"/>
+        <v>track-delete-16x16</v>
       </c>
       <c r="J32" t="s">
         <v>13</v>
       </c>
       <c r="K32" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>4.2</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" si="2"/>
-        <v>Button</v>
-      </c>
-      <c r="E33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" si="0"/>
-        <v>logplot-new-16x16</v>
-      </c>
-      <c r="J33" t="s">
-        <v>13</v>
-      </c>
-      <c r="K33" t="s">
-        <v>78</v>
-      </c>
+      <c r="A33" s="6">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f t="shared" ref="D33:D46" si="3">REPLACE(C33, 1, 2, "")</f>
+        <v>Toolbar</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>4.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Button</v>
       </c>
       <c r="E34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>track-duplicate-16x16</v>
+        <v>marker-add-16x16</v>
       </c>
       <c r="J34" t="s">
         <v>13</v>
       </c>
       <c r="K34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>4.4000000000000004</v>
+        <v>5.2</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Button</v>
       </c>
       <c r="E35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>track-delete-16x16</v>
+        <v>zone-edit-16x16</v>
       </c>
       <c r="J35" t="s">
         <v>13</v>
       </c>
       <c r="K35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <v>5</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="1" t="str">
-        <f t="shared" ref="D36:D49" si="3">REPLACE(C36, 1, 2, "")</f>
-        <v>Toolbar</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
+      <c r="A36" s="5">
+        <v>5.3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="3"/>
+        <v>Button</v>
+      </c>
+      <c r="E36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>annotation-16x16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>5.0999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -1779,25 +1771,25 @@
         <v>Button</v>
       </c>
       <c r="E37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>marker-add-16x16</v>
+        <v>image-add-16x16</v>
       </c>
       <c r="J37" t="s">
         <v>13</v>
       </c>
       <c r="K37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -1807,25 +1799,25 @@
         <v>Button</v>
       </c>
       <c r="E38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>zone-edit-16x16</v>
+        <v>shading-add-16x16</v>
       </c>
       <c r="J38" t="s">
         <v>13</v>
       </c>
       <c r="K38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -1835,53 +1827,48 @@
         <v>Button</v>
       </c>
       <c r="E39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>annotation-16x16</v>
+        <v>visual-remove-16x16</v>
       </c>
       <c r="J39" t="s">
         <v>13</v>
       </c>
       <c r="K39" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>5.4</v>
-      </c>
-      <c r="B40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" t="str">
+      <c r="A40" s="6">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Button</v>
-      </c>
-      <c r="E40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="0"/>
-        <v>image-add-16x16</v>
-      </c>
-      <c r="J40" t="s">
-        <v>13</v>
-      </c>
-      <c r="K40" t="s">
-        <v>83</v>
-      </c>
+        <v>Toolbar</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -1891,25 +1878,25 @@
         <v>Button</v>
       </c>
       <c r="E41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>shading-add-16x16</v>
+        <v>crossplot-new-16x16</v>
       </c>
       <c r="J41" t="s">
         <v>13</v>
       </c>
       <c r="K41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -1919,25 +1906,25 @@
         <v>Button</v>
       </c>
       <c r="E42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>visual-remove-16x16</v>
+        <v>histogram-new-16x16</v>
       </c>
       <c r="J42" t="s">
         <v>13</v>
       </c>
       <c r="K42" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>6</v>
@@ -1957,147 +1944,68 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="3"/>
-        <v>Button</v>
-      </c>
-      <c r="E44" t="s">
-        <v>68</v>
+        <v>Checkbox</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>crossplot-new-16x16</v>
-      </c>
-      <c r="J44" t="s">
-        <v>13</v>
-      </c>
-      <c r="K44" t="s">
-        <v>86</v>
+        <v/>
+      </c>
+      <c r="G44" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="3"/>
-        <v>Button</v>
-      </c>
-      <c r="E45" t="s">
-        <v>69</v>
+        <v>Checkbox</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
-        <v>histogram-new-16x16</v>
-      </c>
-      <c r="J45" t="s">
-        <v>13</v>
-      </c>
-      <c r="K45" t="s">
-        <v>45</v>
+        <v/>
+      </c>
+      <c r="G45" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
-        <v>7</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Toolbar</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
-        <v>7.1</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="A46" s="5">
+        <v>7.3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
         <v>48</v>
       </c>
-      <c r="C47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" t="str">
+      <c r="D46" t="str">
         <f t="shared" si="3"/>
         <v>Checkbox</v>
       </c>
-      <c r="F47" t="str">
+      <c r="F46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
-        <v>7.2</v>
-      </c>
-      <c r="B48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" t="str">
-        <f t="shared" si="3"/>
-        <v>Checkbox</v>
-      </c>
-      <c r="F48" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G48" t="s">
+      <c r="G46" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
-        <v>7.3</v>
-      </c>
-      <c r="B49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" t="str">
-        <f t="shared" si="3"/>
-        <v>Checkbox</v>
-      </c>
-      <c r="F49" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G49" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Wi-LogPlot.xlsx
+++ b/Wi-LogPlot.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Github\wi-angular\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="75" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
@@ -10,7 +15,7 @@
     <sheet name="LogPlotTab" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="144">
   <si>
     <t>Code</t>
   </si>
@@ -443,12 +448,21 @@
   </si>
   <si>
     <t xml:space="preserve">Range Specific </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1.6.13</t>
+  </si>
+  <si>
+    <t>ScaleCustomButton</t>
+  </si>
+  <si>
+    <t>Custom Scale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -528,8 +542,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFE4A506"/>
@@ -538,6 +580,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -798,7 +843,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -806,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -932,7 +977,7 @@
         <v>51</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F4:F46" si="0">SUBSTITUTE(E4,"_","-")</f>
+        <f t="shared" ref="F4:F47" si="0">SUBSTITUTE(E4,"_","-")</f>
         <v>save-16x16</v>
       </c>
       <c r="J4" t="s">
@@ -1329,62 +1374,57 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" t="s">
+        <v>135</v>
+      </c>
+      <c r="L21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>2</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="1" t="str">
-        <f>REPLACE(C21, 1, 2, "")</f>
+      <c r="D22" s="1" t="str">
+        <f>REPLACE(C22, 1, 2, "")</f>
         <v>Toolbar</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>2.1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="str">
-        <f>REPLACE(C22, 1, 2, "")</f>
-        <v>Button</v>
-      </c>
-      <c r="E22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>zoom-in-16x16</v>
-      </c>
-      <c r="J22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" t="s">
-        <v>91</v>
-      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -1394,183 +1434,183 @@
         <v>Button</v>
       </c>
       <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>zoom-in-16x16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="str">
+        <f>REPLACE(C24, 1, 2, "")</f>
+        <v>Button</v>
+      </c>
+      <c r="E24" t="s">
         <v>56</v>
       </c>
-      <c r="F23" t="str">
+      <c r="F24" t="str">
         <f t="shared" si="0"/>
         <v>zoom-out-16x16</v>
       </c>
-      <c r="J23" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="J24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <v>3</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="1" t="str">
-        <f>REPLACE(C24, 1, 2, "")</f>
+      <c r="D25" s="1" t="str">
+        <f>REPLACE(C25, 1, 2, "")</f>
         <v>Toolbar</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>3.1</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" ref="D25:D32" si="2">REPLACE(C25, 1, 2, "")</f>
-        <v>Button</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" ref="D26:D33" si="2">REPLACE(C26, 1, 2, "")</f>
+        <v>Button</v>
+      </c>
+      <c r="E26" t="s">
         <v>57</v>
       </c>
-      <c r="F25" t="str">
+      <c r="F26" t="str">
         <f t="shared" si="0"/>
         <v>plot-range-16x16</v>
       </c>
-      <c r="J25" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="J26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+    <row r="27" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
         <v>3.2</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B27" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="12" t="str">
+      <c r="C27" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Button</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E27" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="12" t="str">
+      <c r="F27" s="12" t="str">
         <f t="shared" si="0"/>
         <v>plot-range-specific-16x16</v>
       </c>
-      <c r="J26" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" s="12" t="s">
+      <c r="J27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>3.3</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="str">
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="str">
         <f t="shared" si="2"/>
         <v>Button</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>27</v>
       </c>
-      <c r="F27" t="str">
+      <c r="F28" t="str">
         <f t="shared" si="0"/>
         <v>plot-whole-well-16x16</v>
       </c>
-      <c r="J27" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="J28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
         <v>4</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="1" t="str">
-        <f>REPLACE(C28, 1, 2, "")</f>
+      <c r="D29" s="1" t="str">
+        <f>REPLACE(C29, 1, 2, "")</f>
         <v>Toolbar</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="2"/>
-        <v>Button</v>
-      </c>
-      <c r="E29" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" t="str">
-        <f>SUBSTITUTE(E29,"_","-")</f>
-        <v>depth-axis-add-16x16</v>
-      </c>
-      <c r="J29" t="s">
-        <v>13</v>
-      </c>
-      <c r="K29" t="s">
-        <v>76</v>
-      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -1580,25 +1620,25 @@
         <v>Button</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="0"/>
-        <v>logplot-new-16x16</v>
+        <f>SUBSTITUTE(E30,"_","-")</f>
+        <v>depth-axis-add-16x16</v>
       </c>
       <c r="J30" t="s">
         <v>13</v>
       </c>
       <c r="K30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -1608,25 +1648,25 @@
         <v>Button</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>track-duplicate-16x16</v>
+        <v>logplot-new-16x16</v>
       </c>
       <c r="J31" t="s">
         <v>13</v>
       </c>
       <c r="K31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -1636,76 +1676,76 @@
         <v>Button</v>
       </c>
       <c r="E32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>track-duplicate-16x16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="2"/>
+        <v>Button</v>
+      </c>
+      <c r="E33" t="s">
         <v>60</v>
       </c>
-      <c r="F32" t="str">
+      <c r="F33" t="str">
         <f t="shared" si="0"/>
         <v>track-delete-16x16</v>
       </c>
-      <c r="J32" t="s">
-        <v>13</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
         <v>5</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="1" t="str">
-        <f t="shared" ref="D33:D46" si="3">REPLACE(C33, 1, 2, "")</f>
+      <c r="D34" s="1" t="str">
+        <f t="shared" ref="D34:D47" si="3">REPLACE(C34, 1, 2, "")</f>
         <v>Toolbar</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="3"/>
-        <v>Button</v>
-      </c>
-      <c r="E34" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" si="0"/>
-        <v>marker-add-16x16</v>
-      </c>
-      <c r="J34" t="s">
-        <v>13</v>
-      </c>
-      <c r="K34" t="s">
-        <v>80</v>
-      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -1715,25 +1755,25 @@
         <v>Button</v>
       </c>
       <c r="E35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>zone-edit-16x16</v>
+        <v>marker-add-16x16</v>
       </c>
       <c r="J35" t="s">
         <v>13</v>
       </c>
       <c r="K35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -1743,25 +1783,25 @@
         <v>Button</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>annotation-16x16</v>
+        <v>zone-edit-16x16</v>
       </c>
       <c r="J36" t="s">
         <v>13</v>
       </c>
       <c r="K36" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -1771,25 +1811,25 @@
         <v>Button</v>
       </c>
       <c r="E37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>image-add-16x16</v>
+        <v>annotation-16x16</v>
       </c>
       <c r="J37" t="s">
         <v>13</v>
       </c>
       <c r="K37" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -1799,25 +1839,25 @@
         <v>Button</v>
       </c>
       <c r="E38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>shading-add-16x16</v>
+        <v>image-add-16x16</v>
       </c>
       <c r="J38" t="s">
         <v>13</v>
       </c>
       <c r="K38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -1827,76 +1867,76 @@
         <v>Button</v>
       </c>
       <c r="E39" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>shading-add-16x16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="3"/>
+        <v>Button</v>
+      </c>
+      <c r="E40" t="s">
         <v>66</v>
       </c>
-      <c r="F39" t="str">
+      <c r="F40" t="str">
         <f t="shared" si="0"/>
         <v>visual-remove-16x16</v>
       </c>
-      <c r="J39" t="s">
-        <v>13</v>
-      </c>
-      <c r="K39" t="s">
+      <c r="J40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
         <v>6</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="1" t="str">
+      <c r="D41" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Toolbar</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>6.1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" t="str">
-        <f t="shared" si="3"/>
-        <v>Button</v>
-      </c>
-      <c r="E41" t="s">
-        <v>67</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" si="0"/>
-        <v>crossplot-new-16x16</v>
-      </c>
-      <c r="J41" t="s">
-        <v>13</v>
-      </c>
-      <c r="K41" t="s">
-        <v>85</v>
-      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -1906,70 +1946,76 @@
         <v>Button</v>
       </c>
       <c r="E42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>crossplot-new-16x16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>6.2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="3"/>
+        <v>Button</v>
+      </c>
+      <c r="E43" t="s">
         <v>68</v>
       </c>
-      <c r="F42" t="str">
+      <c r="F43" t="str">
         <f t="shared" si="0"/>
         <v>histogram-new-16x16</v>
       </c>
-      <c r="J42" t="s">
-        <v>13</v>
-      </c>
-      <c r="K42" t="s">
+      <c r="J43" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
-        <v>7</v>
-      </c>
-      <c r="B43" s="1" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>7</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="1" t="str">
+      <c r="D44" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Toolbar</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>7.1</v>
-      </c>
-      <c r="B44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" t="str">
-        <f t="shared" si="3"/>
-        <v>Checkbox</v>
-      </c>
-      <c r="F44" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G44" t="s">
-        <v>88</v>
-      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
         <v>48</v>
@@ -1983,15 +2029,15 @@
         <v/>
       </c>
       <c r="G45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
         <v>48</v>
@@ -2005,6 +2051,28 @@
         <v/>
       </c>
       <c r="G46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>7.3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="3"/>
+        <v>Checkbox</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G47" t="s">
         <v>90</v>
       </c>
     </row>
